--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/10/seed5/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.56</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.604</v>
+        <v>13.044</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.828</v>
+        <v>-12.378</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.438000000000001</v>
+        <v>5.417</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.073</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.252</v>
+        <v>-11.675</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.554</v>
+        <v>12.513</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.92</v>
+        <v>13.147</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.534</v>
+        <v>-12.473</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.52</v>
+        <v>12.848</v>
       </c>
     </row>
     <row r="25">
